--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9568,7 +9568,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:21.716550</t>
+    <t>2024-11-08 02:13:58.402813</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9568,7 +9568,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:58.402813</t>
+    <t>2024-11-08 09:00:10.998245</t>
   </si>
   <si>
     <t>version</t>
@@ -9580,7 +9580,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9568,19 +9568,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 09:00:10.998245</t>
+    <t>2024-11-12 08:42:22.985198</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:22.985198</t>
+    <t>2024-12-02 16:44:15.960779</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9568,13 +9568,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:15.960779</t>
+    <t>2024-12-10 17:55:22.914602</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9598,7 +9598,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:45.341863</t>
+    <t>2024-12-20 14:58:17.377138</t>
   </si>
   <si>
     <t>version</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9598,13 +9598,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:17.377138</t>
+    <t>2024-12-23 11:42:07.721735</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10485" uniqueCount="3225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10487" uniqueCount="3227">
   <si>
     <t>identificatie</t>
   </si>
@@ -9670,7 +9670,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:06.205179</t>
+    <t>2025-02-14 14:05:36.673406</t>
   </si>
   <si>
     <t>version</t>
@@ -9679,10 +9679,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -46703,7 +46709,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46749,6 +46755,14 @@
         <v>3224</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9670,13 +9670,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:36.673406</t>
+    <t>2025-02-24 16:59:58.261958</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/grondwater_template_full_oefen.xlsx
+++ b/data/grondwater_template_full_oefen.xlsx
@@ -9670,13 +9670,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:58.261958</t>
+    <t>2025-02-28 11:24:52.478045</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
